--- a/local/public/excel_files/pm_broadcast.xlsx
+++ b/local/public/excel_files/pm_broadcast.xlsx
@@ -395,7 +395,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,74 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
         <v>13</v>
       </c>
     </row>

--- a/local/public/excel_files/pm_broadcast.xlsx
+++ b/local/public/excel_files/pm_broadcast.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="MySheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -560,7 +560,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/local/public/excel_files/pm_broadcast.xlsx
+++ b/local/public/excel_files/pm_broadcast.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="MySheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -32,31 +32,31 @@
     <t>Remark</t>
   </si>
   <si>
+    <t>2020-11-19 15:36:00</t>
+  </si>
+  <si>
+    <t>vps20201101</t>
+  </si>
+  <si>
+    <t>vps20201102</t>
+  </si>
+  <si>
+    <t>msg3</t>
+  </si>
+  <si>
+    <t>vps20201103</t>
+  </si>
+  <si>
+    <t>msg4</t>
+  </si>
+  <si>
+    <t>vps20201104</t>
+  </si>
+  <si>
     <t>msg1</t>
   </si>
   <si>
-    <t>2020-11-19 15:36:00</t>
-  </si>
-  <si>
-    <t>vps20201101</t>
-  </si>
-  <si>
     <t>msg2</t>
-  </si>
-  <si>
-    <t>vps20201102</t>
-  </si>
-  <si>
-    <t>msg3</t>
-  </si>
-  <si>
-    <t>vps20201103</t>
-  </si>
-  <si>
-    <t>msg4</t>
-  </si>
-  <si>
-    <t>vps20201104</t>
   </si>
 </sst>
 </file>
@@ -424,34 +424,34 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2">
+        <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="B3">
+        <v>1000</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -493,16 +493,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -510,16 +510,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -527,16 +527,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -544,16 +544,16 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/local/public/excel_files/pm_broadcast.xlsx
+++ b/local/public/excel_files/pm_broadcast.xlsx
@@ -391,7 +391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -422,7 +422,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -439,7 +439,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1000</v>

--- a/local/public/excel_files/pm_broadcast.xlsx
+++ b/local/public/excel_files/pm_broadcast.xlsx
@@ -391,7 +391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -422,7 +422,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -439,7 +439,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1000</v>
